--- a/Proposed Review Strata.xlsx
+++ b/Proposed Review Strata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40545\Documents\GitHub\pelagicsurveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51DD6-802C-471E-9F85-A0D42355A644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980F600-263C-44F2-9F40-6098E28153ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7AA5877F-59BC-46E4-8DB2-BB0FADB95532}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Levels" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2036,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0A59CF-BC23-4FAF-B2FD-D5E49FCACE36}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
